--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ooleg\OneDrive\Документы\GitHub\Slotcar-Horodetskylap\zase4kak\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A61D01D8-B64B-4327-B60A-00E0B7DBA3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{836D1F4A-F2D6-4046-96C1-8F1BCEF7E6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{9DE897F4-E4F8-4C5F-B886-3342CBE8DFC9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{2D3D5AC5-A522-4BF1-83E2-F6AC202810FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,33 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>resf</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>jhghd</t>
+  </si>
+  <si>
+    <t>0,21</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>Городецький</t>
-  </si>
-  <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Смик</t>
+    <t>sdff</t>
+  </si>
+  <si>
+    <t>0,12</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C822EB-6BF9-4F6A-A3DA-4CAF36C9CFBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D8DD74-8EEA-4B56-A9E0-64661E613238}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -438,29 +447,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836D1F4A-F2D6-4046-96C1-8F1BCEF7E6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262146A7-3CFD-4A05-A9D8-FC60B88EB389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{2D3D5AC5-A522-4BF1-83E2-F6AC202810FC}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{586E4246-F3B5-4292-9AE4-8E7993143A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,42 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Червона</t>
+  </si>
+  <si>
+    <t>Прядко Тарас</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
+  </si>
   <si>
     <t>Синя</t>
   </si>
   <si>
-    <t>resf</t>
-  </si>
-  <si>
-    <t>0,31</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>jhghd</t>
-  </si>
-  <si>
-    <t>0,21</t>
+    <t>Гураль Тарас</t>
   </si>
   <si>
     <t>Жовта</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>0,13</t>
-  </si>
-  <si>
-    <t>Червона</t>
-  </si>
-  <si>
-    <t>sdff</t>
-  </si>
-  <si>
-    <t>0,12</t>
+    <t>Демідов Олексій</t>
   </si>
 </sst>
 </file>
@@ -421,7 +412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D8DD74-8EEA-4B56-A9E0-64661E613238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB0375-AC4E-4F9F-BC26-580A62B19734}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -447,29 +438,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262146A7-3CFD-4A05-A9D8-FC60B88EB389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1AE308-3670-476E-8399-E36B00DF7F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{586E4246-F3B5-4292-9AE4-8E7993143A8A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{EB60FB2D-2516-4082-B751-F4DF218B7110}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,33 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Червона</t>
   </si>
   <si>
-    <t>Прядко Тарас</t>
-  </si>
-  <si>
-    <t>0,</t>
+    <t>Демідов Олексій</t>
   </si>
   <si>
     <t>Зелена</t>
   </si>
   <si>
+    <t>Ванкевич Ігор</t>
+  </si>
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Паращак Юрій</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
     <t>Щербина Юхим</t>
   </si>
   <si>
-    <t>Синя</t>
+    <t>Бабій Тарас</t>
+  </si>
+  <si>
+    <t>Городецький Олег</t>
   </si>
   <si>
     <t>Гураль Тарас</t>
   </si>
   <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
+    <t>Смик Богдан</t>
   </si>
 </sst>
 </file>
@@ -412,8 +421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EB0375-AC4E-4F9F-BC26-580A62B19734}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219EA7F-E9C6-45B9-BC39-D8D0D4BBCC80}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,41 +435,85 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1AE308-3670-476E-8399-E36B00DF7F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{763CF886-085D-4851-A99F-FB47A92DD2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{EB60FB2D-2516-4082-B751-F4DF218B7110}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{15F42DFF-B774-4F6B-85EC-4729AC41DD0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Ванкевич Ігор</t>
+  </si>
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Паращак Юрій</t>
+  </si>
+  <si>
     <t>Червона</t>
   </si>
   <si>
+    <t>Бабій Тарас</t>
+  </si>
+  <si>
+    <t>Гураль Тарас</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Смик Богдан</t>
+  </si>
+  <si>
     <t>Демідов Олексій</t>
   </si>
   <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>Ванкевич Ігор</t>
-  </si>
-  <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
     <t>Щербина Юхим</t>
   </si>
   <si>
-    <t>Бабій Тарас</t>
-  </si>
-  <si>
     <t>Городецький Олег</t>
-  </si>
-  <si>
-    <t>Гураль Тарас</t>
-  </si>
-  <si>
-    <t>Смик Богдан</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8219EA7F-E9C6-45B9-BC39-D8D0D4BBCC80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F348EC-9BAC-4D99-A354-9BD3D2530199}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,62 +458,62 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763CF886-085D-4851-A99F-FB47A92DD2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59BA155-07A1-417B-9888-A954224B074E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{15F42DFF-B774-4F6B-85EC-4729AC41DD0F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{93E10501-B501-4153-89A2-4FCF011D6286}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Паращак Юрій</t>
+  </si>
+  <si>
     <t>Зелена</t>
   </si>
   <si>
     <t>Ванкевич Ігор</t>
   </si>
   <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
   </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
+    <t>Демідов Олексій</t>
+  </si>
+  <si>
     <t>Бабій Тарас</t>
   </si>
   <si>
+    <t>Городецький Олег</t>
+  </si>
+  <si>
     <t>Гураль Тарас</t>
   </si>
   <si>
-    <t>Жовта</t>
-  </si>
-  <si>
     <t>Смик Богдан</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>Городецький Олег</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F348EC-9BAC-4D99-A354-9BD3D2530199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A654A6-8CA0-401D-9745-BD79F651A053}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>2.11</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,34 +458,34 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.1000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59BA155-07A1-417B-9888-A954224B074E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A449E0F6-B745-412F-A40C-6E8EE3652672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4CD8886-4DF9-4452-ABF4-492079C50702}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{93E10501-B501-4153-89A2-4FCF011D6286}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{279E2909-D859-4E56-BC1F-D6ADFF67EC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,42 +34,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Синя</t>
   </si>
   <si>
+    <t>Гураль Тарас</t>
+  </si>
+  <si>
+    <t>16,2</t>
+  </si>
+  <si>
+    <t>Червона</t>
+  </si>
+  <si>
+    <t>Бабій Тарас</t>
+  </si>
+  <si>
+    <t>14,2</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Смик Богдан</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Ванкевич Ігор</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>Городецький Олег</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>Демідов Олексій</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>Паращак Юрій</t>
   </si>
   <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>Ванкевич Ігор</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>Червона</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Бабій Тарас</t>
-  </si>
-  <si>
-    <t>Городецький Олег</t>
-  </si>
-  <si>
-    <t>Гураль Тарас</t>
-  </si>
-  <si>
-    <t>Смик Богдан</t>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -421,12 +445,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A654A6-8CA0-401D-9745-BD79F651A053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ED72E9-D0CA-42E5-AB51-C852EE894BCC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -435,85 +465,85 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>0.11</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.11</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.11</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A449E0F6-B745-412F-A40C-6E8EE3652672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4CD8886-4DF9-4452-ABF4-492079C50702}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB791613-C40D-4883-B91F-6027BA6A84B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{279E2909-D859-4E56-BC1F-D6ADFF67EC5D}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9978DEA6-7EE7-4843-9657-692590636C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,66 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Червона</t>
+  </si>
+  <si>
+    <t>Щербина</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Ванкевич</t>
+  </si>
   <si>
     <t>Синя</t>
   </si>
   <si>
-    <t>Гураль Тарас</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>Червона</t>
-  </si>
-  <si>
-    <t>Бабій Тарас</t>
-  </si>
-  <si>
-    <t>14,2</t>
+    <t>Гураль</t>
   </si>
   <si>
     <t>Жовта</t>
   </si>
   <si>
-    <t>Смик Богдан</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>Ванкевич Ігор</t>
-  </si>
-  <si>
-    <t>5,1</t>
-  </si>
-  <si>
-    <t>Городецький Олег</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
-  </si>
-  <si>
-    <t>0,1</t>
+    <t>Паращак</t>
   </si>
 </sst>
 </file>
@@ -445,18 +412,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ED72E9-D0CA-42E5-AB51-C852EE894BCC}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E451F71-5D8C-457B-AAD8-F1CEE717A275}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -477,73 +438,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB791613-C40D-4883-B91F-6027BA6A84B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EFCEA1-1444-4424-ACD6-ED3EDA2632FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{9978DEA6-7EE7-4843-9657-692590636C21}"/>
+    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{938AF562-A485-49E1-817C-5ABC98FFBD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,33 +34,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Смик</t>
+  </si>
+  <si>
+    <t>6,21</t>
+  </si>
+  <si>
+    <t>Біла</t>
+  </si>
+  <si>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>Щербина</t>
+  </si>
+  <si>
+    <t>3,21</t>
+  </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
-    <t>Щербина</t>
+    <t>Демідов</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Паращак</t>
+  </si>
+  <si>
+    <t>2,33</t>
+  </si>
+  <si>
+    <t>Бабій</t>
+  </si>
+  <si>
+    <t>10,31</t>
+  </si>
+  <si>
+    <t>Гураль</t>
+  </si>
+  <si>
+    <t>10,22</t>
+  </si>
+  <si>
+    <t>Оранжева</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>Зелена</t>
-  </si>
-  <si>
     <t>Ванкевич</t>
   </si>
   <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>Гураль</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Паращак</t>
+    <t>0,02</t>
   </si>
 </sst>
 </file>
@@ -412,8 +466,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E451F71-5D8C-457B-AAD8-F1CEE717A275}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D368C0D5-675E-4032-AF6E-5989B00B1C0A}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,29 +492,117 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EFCEA1-1444-4424-ACD6-ED3EDA2632FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B65C33-E048-4FA5-B9FE-D914A25877A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{938AF562-A485-49E1-817C-5ABC98FFBD52}"/>
+    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{75C59CE6-0F63-4339-8A9F-C43A04A9E0E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>Біла</t>
+  </si>
+  <si>
+    <t>Городецький</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Бабій</t>
+  </si>
+  <si>
+    <t>15,5</t>
+  </si>
   <si>
     <t>Жовта</t>
   </si>
@@ -42,16 +60,16 @@
     <t>Смик</t>
   </si>
   <si>
-    <t>6,21</t>
-  </si>
-  <si>
-    <t>Біла</t>
-  </si>
-  <si>
-    <t>Городецький</t>
-  </si>
-  <si>
-    <t>4,12</t>
+    <t>14,6</t>
+  </si>
+  <si>
+    <t>Оранжева</t>
+  </si>
+  <si>
+    <t>Ванкевич</t>
+  </si>
+  <si>
+    <t>9,3</t>
   </si>
   <si>
     <t>Зелена</t>
@@ -60,61 +78,40 @@
     <t>Щербина</t>
   </si>
   <si>
-    <t>3,21</t>
+    <t>7,4</t>
   </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
     <t>Демідов</t>
   </si>
   <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>Синя</t>
+    <t>6,23</t>
+  </si>
+  <si>
+    <t>Гураль</t>
+  </si>
+  <si>
+    <t>5,2</t>
   </si>
   <si>
     <t>Паращак</t>
   </si>
   <si>
-    <t>2,33</t>
-  </si>
-  <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>10,31</t>
-  </si>
-  <si>
-    <t>Гураль</t>
-  </si>
-  <si>
-    <t>10,22</t>
-  </si>
-  <si>
-    <t>Оранжева</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,3</t>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>2,1</t>
   </si>
   <si>
     <t>0,2</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
-  </si>
-  <si>
-    <t>0,02</t>
   </si>
 </sst>
 </file>
@@ -466,7 +463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D368C0D5-675E-4032-AF6E-5989B00B1C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8747B-E3AD-4CF2-80CC-19D35B843444}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -530,35 +527,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -585,10 +582,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -596,13 +593,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B65C33-E048-4FA5-B9FE-D914A25877A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0A632D-7AFF-4120-99A9-A050FFB28893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{75C59CE6-0F63-4339-8A9F-C43A04A9E0E9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{B9668727-428C-41F0-8043-1492368343F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,84 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
-  <si>
-    <t>Біла</t>
-  </si>
-  <si>
-    <t>Городецький</t>
-  </si>
-  <si>
-    <t>18,2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>Червона</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>Гураль</t>
+  </si>
+  <si>
+    <t>7,11</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>Ванкевич</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>6,1</t>
   </si>
   <si>
     <t>Синя</t>
   </si>
   <si>
-    <t>Бабій</t>
-  </si>
-  <si>
-    <t>15,5</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>Смик</t>
-  </si>
-  <si>
-    <t>14,6</t>
-  </si>
-  <si>
-    <t>Оранжева</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
-  </si>
-  <si>
-    <t>9,3</t>
-  </si>
-  <si>
-    <t>Зелена</t>
+    <t>5,11</t>
   </si>
   <si>
     <t>Щербина</t>
   </si>
   <si>
-    <t>7,4</t>
-  </si>
-  <si>
-    <t>Червона</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>Демідов</t>
-  </si>
-  <si>
-    <t>6,23</t>
-  </si>
-  <si>
-    <t>Гураль</t>
-  </si>
-  <si>
-    <t>5,2</t>
+    <t>4,11</t>
   </si>
   <si>
     <t>Паращак</t>
   </si>
   <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>0,2</t>
+    <t>1,11</t>
   </si>
 </sst>
 </file>
@@ -463,8 +436,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8747B-E3AD-4CF2-80CC-19D35B843444}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF90AA-A595-42FB-962C-07E36389CD07}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,123 +456,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0A632D-7AFF-4120-99A9-A050FFB28893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E535B78-1A39-4AF7-A6BB-BD990BF81056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{B9668727-428C-41F0-8043-1492368343F2}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{46D1F309-AA46-4F66-98A3-1946230A9819}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,57 +34,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Синя</t>
+  </si>
+  <si>
+    <t>Паращак</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>Зелена</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>Жовта</t>
+  </si>
+  <si>
+    <t>Гураль</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>Біла</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
   <si>
     <t>Червона</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
-    <t>Гураль</t>
-  </si>
-  <si>
-    <t>7,11</t>
-  </si>
-  <si>
-    <t>Жовта</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>Ванкевич</t>
-  </si>
-  <si>
-    <t>6,11</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>Синя</t>
-  </si>
-  <si>
-    <t>5,11</t>
-  </si>
-  <si>
-    <t>Щербина</t>
-  </si>
-  <si>
-    <t>4,11</t>
-  </si>
-  <si>
-    <t>Паращак</t>
-  </si>
-  <si>
-    <t>1,11</t>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>Оранжева</t>
+  </si>
+  <si>
+    <t>7,4</t>
   </si>
 </sst>
 </file>
@@ -436,8 +430,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF90AA-A595-42FB-962C-07E36389CD07}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37544EE3-C369-4D0D-B0D5-06B354C57FD4}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,79 +450,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E535B78-1A39-4AF7-A6BB-BD990BF81056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECFD9F1-A6E8-4D13-BA79-81BC33673106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{46D1F309-AA46-4F66-98A3-1946230A9819}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{17BFCF8E-BC9A-4620-9B24-5D00D0995F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Синя</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>ванкевич</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>Щербина</t>
+  </si>
+  <si>
+    <t>0,123</t>
   </si>
   <si>
     <t>Паращак</t>
   </si>
   <si>
-    <t>10,5</t>
-  </si>
-  <si>
-    <t>Зелена</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>Жовта</t>
+    <t>0,12</t>
   </si>
   <si>
     <t>Гураль</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>Біла</t>
-  </si>
-  <si>
-    <t>8,3</t>
-  </si>
-  <si>
-    <t>Червона</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>Оранжева</t>
-  </si>
-  <si>
-    <t>7,4</t>
   </si>
 </sst>
 </file>
@@ -430,77 +421,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37544EE3-C369-4D0D-B0D5-06B354C57FD4}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F68D59-34BF-4715-9156-AD62F4F9917D}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60BB308-3714-48D5-8B34-FF728CC2A99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD7C03D-F15A-4145-A4A1-76708B5F5758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A1A73A40-F786-40F2-B51A-575026768BD7}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{3BAB51FB-5CA2-4446-AE19-C83E84E9010B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>Гоородецький-Музика</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>фві</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
   <si>
     <t>а</t>
   </si>
   <si>
-    <t>3,2</t>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>1,5</t>
   </si>
   <si>
     <t>Городецький/музика</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>Гоородецький-Музика</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,3</t>
+    <t>1,21</t>
+  </si>
+  <si>
+    <t>йцуй</t>
+  </si>
+  <si>
+    <t>1,15</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,21</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,1</t>
+    <t>вфі</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
 </sst>
 </file>
@@ -415,8 +433,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D309ADD1-38F5-43E5-85F2-48530FC79002}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C74128-04CE-4D78-90B3-941B7C34D697}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +466,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -456,15 +474,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -472,18 +490,50 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD7C03D-F15A-4145-A4A1-76708B5F5758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CCFEAB-409E-46A3-A101-5B38ED337EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{3BAB51FB-5CA2-4446-AE19-C83E84E9010B}"/>
+    <workbookView xWindow="0" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{3E142BF0-AC61-42E2-BB35-402409F8F7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,54 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>Гоородецький-Музика</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>фві</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>2,12</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>Городецький/музика</t>
-  </si>
-  <si>
-    <t>1,21</t>
-  </si>
-  <si>
-    <t>йцуй</t>
-  </si>
-  <si>
-    <t>1,15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>Паращак Юрій</t>
+  </si>
+  <si>
+    <t>0,43</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>Щербина Юхим</t>
+  </si>
+  <si>
+    <t>Городецький Олег</t>
   </si>
   <si>
     <t>0,3</t>
   </si>
   <si>
-    <t>0,21</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>вфі</t>
+    <t>Смик БОгдан</t>
   </si>
   <si>
     <t>0,2</t>
+  </si>
+  <si>
+    <t>Демідов Олексій</t>
+  </si>
+  <si>
+    <t>Городецький Руслан</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -433,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C74128-04CE-4D78-90B3-941B7C34D697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D6C1F-42B6-4200-989F-6323C8244CCA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -441,99 +429,99 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A9">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CCFEAB-409E-46A3-A101-5B38ED337EBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DB706A-AA47-4991-B64E-FA46EDA810A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{3E142BF0-AC61-42E2-BB35-402409F8F7D7}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{198FF428-429A-4CA6-B555-3F56DE976723}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>Паращак Юрій</t>
-  </si>
-  <si>
-    <t>0,43</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Городецький Руслан</t>
   </si>
   <si>
     <t>0,4</t>
   </si>
   <si>
+    <t>Городецький Олег</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
     <t>Щербина Юхим</t>
   </si>
   <si>
-    <t>Городецький Олег</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>Смик БОгдан</t>
-  </si>
-  <si>
     <t>0,2</t>
   </si>
   <si>
     <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>Городецький Руслан</t>
   </si>
   <si>
     <t>0,1</t>
@@ -421,107 +409,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D6C1F-42B6-4200-989F-6323C8244CCA}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31891FB1-85A4-42FD-A488-157C7FAEC173}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zase4kak/bin/Debug/result_of_racing.xlsx
+++ b/zase4kak/bin/Debug/result_of_racing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17fdde4b84ee0ea/Документы/GitHub/Slotcar-Horodetskylap/zase4kak/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DB706A-AA47-4991-B64E-FA46EDA810A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC08413-49EF-418B-85C9-2828ADB3AAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{198FF428-429A-4CA6-B555-3F56DE976723}"/>
+    <workbookView xWindow="32745" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{D5D72363-66AD-4481-88D5-A5D6FFCF9FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Городецький Руслан</t>
-  </si>
-  <si>
-    <t>0,4</t>
   </si>
   <si>
     <t>Городецький Олег</t>
   </si>
   <si>
-    <t>0,3</t>
+    <t>Демідов Олексій</t>
   </si>
   <si>
     <t>Щербина Юхим</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>Демідов Олексій</t>
-  </si>
-  <si>
-    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -409,43 +397,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31891FB1-85A4-42FD-A488-157C7FAEC173}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D66B63-8DD8-4EB6-96DE-4D160786B6DE}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
